--- a/medicine/Psychotrope/Geneviève_Gavignaud-Fontaine/Geneviève_Gavignaud-Fontaine.xlsx
+++ b/medicine/Psychotrope/Geneviève_Gavignaud-Fontaine/Geneviève_Gavignaud-Fontaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+          <t>Geneviève_Gavignaud-Fontaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geneviève Gavignaud-Fontaine, est une historienne française, née le 18 juillet 1947 à Saint-Paul-de-Fenouillet (Pyrénées-Orientales), professeur des Universités émérite (Montpellier, Hérault), auteur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+          <t>Geneviève_Gavignaud-Fontaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est née à Saint-Paul-de-Fenouillet, a épousé Jacques Fontaine, ingénieur d’études à l’Université Montpellier I.
 L'écolière de Saint-Paul, Paris, Agen, Carcassonne, Dakar a fait ses études secondaires aux lycées de Biarritz et de Perpignan, ses études universitaires à Perpignan (Propédeutique), Montpellier (Licence et Maîtrise) et Paris (Doctorat). Agrégée d'histoire (1970), elle a enseigné au Lycée Henri-IV de Béziers tout en étant chargée de cours à l'Université Paul-Valéry / Montpellier III où elle a été nommée assistante en 1975. Sous la direction, à Montpellier du professeur Robert Laurent avant son départ à la retraite, puis du professeur Jean Bouvier à Paris, elle a fait sa thèse sur la propriété en Roussillon. Docteur ès lettres et sciences humaines de l’Université Paris I Panthéon-Sorbonne (doctorat d’État ès lettres et sciences humaines, 1980, mention très honorable et félicitations du jury à l’unanimité), elle a été Professeur des Universités - classe exceptionnelle - à Montpellier où s’est déroulée sa carrière (1975-2015). Elle a été invitée à enseigner aux États-Unis (1980- 81, Davidson, North Carolina) où elle a forgé le concept de « Révolution Rurale ». Membre d’équipes de recherche montpelliéraines, parisiennes et européennes, elle est invitée à participer à des groupes de recherche CNRS organisateurs de rencontres européennes (Portugal, Royaume-Uni, Pays-Bas, Danemark, Espagne); elle a participé à de nombreux colloques internationaux, publié des articles en diverses langues. Ses travaux ont été accompagnés, sans interruption de 1990 à 2014, de primes de recherche et d'encadrement doctoral (1990-2010), prime d'excellence scientifique (2010-2014).
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+          <t>Geneviève_Gavignaud-Fontaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,15 +566,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Analyse novatrice des sociétés rurales, et définition du concept de « Révolution rurale » (1980-2007)
-La Propriété en Roussillon, Structures et conjoncture agraires, XVIIIe – XXe siècle, Thèse Paris I Panthéon-Sorbonne, ANRT Lille III, 1980.
+          <t>Analyse novatrice des sociétés rurales, et définition du concept de « Révolution rurale » (1980-2007)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Propriété en Roussillon, Structures et conjoncture agraires, XVIIIe – XXe siècle, Thèse Paris I Panthéon-Sorbonne, ANRT Lille III, 1980.
 La Révolution rurale. Essai à partir du cas américain (USA), Le Coteau, Horvath, 1983. Préface de Robert Laurent.
 Les Campagnes en France, Paris, Ophrys, 1990, T1, le XIXe siècle; T2, le XXe siècle.
 La Révolution rurale dans la France contemporaine, XVIIIe – XXe siècle, Paris, L’Harmattan, 1996.
 Propriété et société rurale en Europe, les doctrines à l’épreuve de l’histoire sociale française (années 1780-1920), Nantes, Les Éditions du Temps, 2005.
-Villageois sans agriculture! Observations sur la société rurale contemporaine, Montpellier, Publications de la Méditerranée, 2007.
-Histoire du plus vaste vignoble du monde jusqu'à l'an 2000: le Languedoc-Roussillon. (1980-2016)
-Propriétaires-viticulteurs en Roussillon. Structures, Conjonctures, Société, XVIII-XXe siècle, Paris, Publications de la Sorbonne, 1983, 2 tomes Adaptation de la thèse, Préface de Jean Bouvier.
+Villageois sans agriculture! Observations sur la société rurale contemporaine, Montpellier, Publications de la Méditerranée, 2007.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire du plus vaste vignoble du monde jusqu'à l'an 2000: le Languedoc-Roussillon. (1980-2016)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Propriétaires-viticulteurs en Roussillon. Structures, Conjonctures, Société, XVIII-XXe siècle, Paris, Publications de la Sorbonne, 1983, 2 tomes Adaptation de la thèse, Préface de Jean Bouvier.
 Caractères historiques du vignoble en Languedoc et Roussillon, Montpellier, Publications Universitaires de la Méditerranée, 1997.
 Le Languedoc viticole, la Méditerranée et l'Europe au siècle dernier (XXe siècle), Presses Universitaires de la Méditerranée, 2000, 2e édition 2006.
 Vignobles du Sud, XVIe-XXe siècle, Actes du colloque du Centre d’Histoire moderne et contemporaine de l’Europe méditerranéenne et de ses périphéries, Montpellier, Publications Universitaires de la Méditerranée, 2003, en collaboration avec Henri Michel.
@@ -568,49 +621,294 @@
 Le Vin en Languedoc et Roussillon, de la tradition aux mondialisations XVIe – XXe siècle, Perpignan, Trabucaïre, 2007, en collaboration avec Gilbert Larguier.
 Terroirs et marchés des vins dans un siècle de crises. Languedoc et Roussillon, 1907-2007, Montpellier, Publications Universitaires de la Méditerranée, 2012.
 Le Cours des vins en Catalogne et Languedoc-Roussillon. Fluctuations et portée des prix dans le temps long de l’histoire (direction des Actes de la Journée d’études de 2011), Toulouse, Annales du Midi, no 281, janvier-mars 2013.
-Corps intermédiaires vignerons et marchands en Languedoc 1704-1939, ouvrage collectif (avec G. Larguier et alii), Presses Universitaires de Perpignan, 2016.
-Économie morale et sociale: fondements historiques et philosophie chrétienne (2009-2017)
-Considérations économiques chrétiennes de saint Paul aux temps actuels, Paris, Boutique de l’Histoire éditions, 2009.
+Corps intermédiaires vignerons et marchands en Languedoc 1704-1939, ouvrage collectif (avec G. Larguier et alii), Presses Universitaires de Perpignan, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Économie morale et sociale: fondements historiques et philosophie chrétienne (2009-2017)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Considérations économiques chrétiennes de saint Paul aux temps actuels, Paris, Boutique de l’Histoire éditions, 2009.
 Les Catholiques et l’économie-sociale en France, XIXe – XXe siècles, Paris, Les Indes Savantes/La Boutique de l’Histoire, 2011.
 Marchés sans justice, ruines sociales. Refonder les libertés économiques sur la justice, Paris, Les Indes Savantes/La Boutique de l’Histoire, 2013.
-Justice dans les relations économiques et justice sociale. Sources morales et ruptures historiques, Paris, Les Indes Savantes/La Boutique de l’Histoire, 2017.
-Du questionnement historique au questionnement philosophique: méthode et éthique (2021)
-Saint Thomas d'Aquin et la volonté de justice : actualité du questionnement philosophique, Paris, L'Harmattan, 2021.
+Justice dans les relations économiques et justice sociale. Sources morales et ruptures historiques, Paris, Les Indes Savantes/La Boutique de l’Histoire, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Du questionnement historique au questionnement philosophique: méthode et éthique (2021)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Saint Thomas d'Aquin et la volonté de justice : actualité du questionnement philosophique, Paris, L'Harmattan, 2021.
 Au confluent de l'histoire et de la philosophie morale. Sur les réalités économiques, de perdurables savoirs éthiques, à paraître.
 Varia
 Civilisations populaires du Languedoc et du Roussillon, Le Coteau, Horvath, 1982, 2e édition, 1990, ouvrage collectif sous la direction de Gérard Cholvy.
 La Révolution française dans le Languedoc méditerranéen, Toulouse, Privat, 1987, en collaboration avec Robert Laurent.
 Saint-Paul et les Fenouillèdes, les racines de leur histoire, Montpellier, Orpèges, 2011, 2e édition 2012.
-Le « Chapitre » de Saint-Paul-de-Fenouillet, histoire et rayonnement spirituel, œuvres d’art (IXe – XVIIIe siècle), Montpellier, Orpèges, 2013, en collaboration avec Lucien Bayrou et Michèle François.
-Méthode historique
-Rural Studies in Britain and France, sous la direct. de Maryvonne Bodiguel et Philip Lowe, London, Belhaven Press, 1990, « History in Perspective: Rural Studies in French historiography », p. 55 à p. 75.
+Le « Chapitre » de Saint-Paul-de-Fenouillet, histoire et rayonnement spirituel, œuvres d’art (IXe – XVIIIe siècle), Montpellier, Orpèges, 2013, en collaboration avec Lucien Bayrou et Michèle François.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Méthode historique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rural Studies in Britain and France, sous la direct. de Maryvonne Bodiguel et Philip Lowe, London, Belhaven Press, 1990, « History in Perspective: Rural Studies in French historiography », p. 55 à p. 75.
 Revue Histoire et Sociétés rurales, n° 3, 1995, « L’Apport de l’École des Annales à l’histoire rurale de la période contemporaine » p. 94 à p. 103.
 Mélanges offerts à Charles-Olivier Carbonell, une passion de l’histoire, Toulouse, Privat, 2002, « La méthode historique de l’École des Annales à l’épreuve des sociétés rurales contemporaines », p. 183 à p. 196.
 « Robert Laurent, historien des vignerons de la « Côte-d’Or au XIXe siècle », dans Histoire et Sociétés Rurales, n° 5, Campagnes bourguignonnes dans l’histoire, Rennes, 1996, p. 62 à p. 72. Repris dans, Liame, n° 6, CHMCMM, Montpellier, Université Paul-Valéry, 2002.
 Pallas, Revue d’Études Antiques, Les hommes et la terre dans la Méditerranée gréco-romaine, Toulouse, Presses universitaires du Mirail, 64/2004, Introduction « La recherche en histoire rurale: l’antiquité et sa contemporanéité ».
-« Le point de vue d’une historienne » dans Histoire et agronomie: entre ruptures et durée, actes coordonnés par Paul Robin et Jean-Paul Aeschlimann, Paris, IRD Éditions, 2007, p. 33 à p. 44.
-Les campagnes françaises dans les siècles contemporains
-Le Capitalisme français XIXe – XXe siècles. Blocages et dynamique d'une croissance, Hommage à Jean Bouvier, coordonné par Patrick Fridenson et André Strauss, Paris, Fayard, 1987, « Viticulture et propriété: du libéralisme à la coopération », p. 355 à p. 366.
+« Le point de vue d’une historienne » dans Histoire et agronomie: entre ruptures et durée, actes coordonnés par Paul Robin et Jean-Paul Aeschlimann, Paris, IRD Éditions, 2007, p. 33 à p. 44.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les campagnes françaises dans les siècles contemporains</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Capitalisme français XIXe – XXe siècles. Blocages et dynamique d'une croissance, Hommage à Jean Bouvier, coordonné par Patrick Fridenson et André Strauss, Paris, Fayard, 1987, « Viticulture et propriété: du libéralisme à la coopération », p. 355 à p. 366.
 Revue d’Économie rurale, Un siècle d'agriculture française 1880-1990, Paris, 1988, « L'État et la propriété », p. 92 à p. 100.
 Histoire économique XVIIIe – XXe siècle, textes essentiels, sous la direction de Michel Margairaz, Paris, Larousse, 1992, « La propriété en Roussillon XVIIIe – XXe siècle », p. 721 à p. 728.
 Campagnes et Sociétés en Europe, 1830-1930, sous la direction Michel Pigenet et Gilles Pécout et, Paris, Éditions de l’Atelier, 2005, « À propos des voies de passage de l'agriculture paysanne à l'agriculture capitaliste », p. 25 à p. 36. Déjà publié dans Le Mouvement Social, Paris, Les Éditions sociales, 1978, n° 104, p. 31 à p. 42.
 La Revue Historique, Paris, Presses universitaires de France, 1987, 9, « De la Révolution agricole à la Révolution rurale. Des sociétés rurales contemporaines en mutations », p. 99 à p. 119.
 Revue Historiens et Géographes, Paris, 1996, n° 354, « La Révolution rurale. Un concept opératoire pour l’étude des mutations en cours dans les campagnes », p. 132 à p. 137.
-Mouvements paysans face à la politique agricole commune et à la mondialisation (1957-2000), sous la direction de Laurent Jalabert et Christophe Patillon, « Introduction: Les enjeux internationaux du monde agricole de la PAC à l’OMC », Presses Universitaires de Rennes, 2013, p. 15 à p. 35.
-Les enseignements tirés du marché vinicole à l'heure de la mondialisation économique
-Estudis d'Historia agraria, Centre d'Estudis historics internationals (VI) Barcelona, 1985, « Propietaris-viticultors al Rossello » p. 7 à p. 56.- Co-opération and Farmers'Unions in Western Europe, collectif, South Jutland University Press, 1990, « The Emergence of Wine Co-operatives in the Midi », p. 100 à p. 115.
+Mouvements paysans face à la politique agricole commune et à la mondialisation (1957-2000), sous la direction de Laurent Jalabert et Christophe Patillon, « Introduction: Les enjeux internationaux du monde agricole de la PAC à l’OMC », Presses Universitaires de Rennes, 2013, p. 15 à p. 35.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les enseignements tirés du marché vinicole à l'heure de la mondialisation économique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Estudis d'Historia agraria, Centre d'Estudis historics internationals (VI) Barcelona, 1985, « Propietaris-viticultors al Rossello » p. 7 à p. 56.- Co-opération and Farmers'Unions in Western Europe, collectif, South Jutland University Press, 1990, « The Emergence of Wine Co-operatives in the Midi », p. 100 à p. 115.
 Areas, Revista de Ciencias sociales, 12, Editore Regional de Murcia, España, 1990, « El Midi de los viñedos, desde Carlomagno al Mercado común », p. 117 à p. 124.
 Jahrbuch für Wirtschaftsgeschichte, Nahrungmittel und ihre Märkte 19 und Jahrundert, Akademie Werlag, Berlin 1996, 1, « Der weinmarket in den Regionem Languedoc und Roussillon 1860-1907 », p. 109 à p. 128.
 Académie Suisse du Vin, n°A1, oct. 2003, « La longue marche qualitative des vignerons du Midi », p.18 à p. 28.
 Regulierte Mârktet: Zünfte und Kartelle, M. Müller, H. R. Schmid, L. Tissot (Hg.), Université de Neuchâtel, Schweizerische Gesellschaft für Wirtschafts-und Sozialgeschichte, Band 26, 26. Jahrgang, Société suisse d’histoire économique et sociale, n° 26, 26e année, 2011, « Les politiques de régulation du marché du vin en Languedoc 1889-1976 », p. 225 à p. 241.
-Revue d’Histoire Moderne et Contemporaine de Nîmes et du Gard, n° 25, janvier 2010, « Principes de réalité du marché du vin en Languedoc 1889-1976 », p. 33 à p. 42.
-Histoire et philosophie chrétienne
-Textes publiés dans L'Homme Nouveau
-n° 1694, 14 septembre 2019, l’« économie financière de marché » met aujourd’hui hors jeu l’« économie territoriale » à vocation humaine et sociale, Rubrique « tribune libre ».
+Revue d’Histoire Moderne et Contemporaine de Nîmes et du Gard, n° 25, janvier 2010, « Principes de réalité du marché du vin en Languedoc 1889-1976 », p. 33 à p. 42.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoire et philosophie chrétienne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Textes publiés dans L'Homme Nouveau</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>n° 1694, 14 septembre 2019, l’« économie financière de marché » met aujourd’hui hors jeu l’« économie territoriale » à vocation humaine et sociale, Rubrique « tribune libre ».
 n° 1709, 11 avril 2020, « Aux sources chrétiennes d’une économie au service des hommes et des sociétés qu’ils forment », Rubrique « tribune libre ».
-n° 1728, 30 janvier 2021, « Tous frères, font dire le cœur… et la raison! », Rubrique tribune
-Quelques Récensions dans la Revue thomiste
-Laudato si, Lettre encyclique du pape François, Revue thomiste, T, CXVIII, n°2, avril-juin 2018, p. 336 à p. 339.</t>
+n° 1728, 30 janvier 2021, « Tous frères, font dire le cœur… et la raison! », Rubrique tribune</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Geneviève_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Gavignaud-Fontaine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Histoire et philosophie chrétienne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Quelques Récensions dans la Revue thomiste</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Laudato si, Lettre encyclique du pape François, Revue thomiste, T, CXVIII, n°2, avril-juin 2018, p. 336 à p. 339.</t>
         </is>
       </c>
     </row>
